--- a/10-razpredelnice/smucanje.xlsx
+++ b/10-razpredelnice/smucanje.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d689ea935ecf4af/Git/racunalniski-praktikum/10-razpredelnice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC90B8A5-2048-4F19-8138-3C4B977C9AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{CC90B8A5-2048-4F19-8138-3C4B977C9AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{719629F1-8ADD-49FA-A981-18501FADD191}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{F0A69BD3-4E11-47B3-8B82-189FDDCDEC2A}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -457,32 +457,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -490,7 +488,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -498,7 +496,265 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="75">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="3" tint="0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="3" tint="0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFABABAB"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFABABAB"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -534,18 +790,80 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
       <border>
+        <top/>
+        <bottom style="thin">
+          <color theme="3" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top/>
+        <bottom style="thin">
+          <color theme="3" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="3" tint="0.499984740745262"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
         <right/>
+        <top style="thin">
+          <color theme="3" tint="0.499984740745262"/>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border>
+        <left/>
         <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
+        <top style="thin">
+          <color theme="3" tint="0.499984740745262"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -561,6 +879,51 @@
           <bgColor theme="3" tint="0.89999084444715716"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="3" tint="0.499984740745262"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -583,61 +946,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="3" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="3" tint="0.89999084444715716"/>
@@ -653,512 +961,7 @@
     </dxf>
     <dxf>
       <border>
-        <left/>
         <right/>
-        <top style="thin">
-          <color theme="3" tint="0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="3" tint="0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="3" tint="0.499984740745262"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <top/>
-        <bottom style="thin">
-          <color theme="3" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top/>
-        <bottom style="thin">
-          <color theme="3" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <top/>
-        <bottom style="thin">
-          <color theme="3" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top/>
-        <bottom style="thin">
-          <color theme="3" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.89999084444715716"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.89999084444715716"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="3" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="3" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="3" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.89999084444715716"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.89999084444715716"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="3" tint="0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="3" tint="0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="3" tint="0.499984740745262"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="3" tint="0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="3" tint="0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.89999084444715716"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.89999084444715716"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.89999084444715716"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.89999084444715716"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.89999084444715716"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.89999084444715716"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.89999084444715716"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.89999084444715716"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFABABAB"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFABABAB"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
       </border>
     </dxf>
     <dxf>
@@ -1261,6 +1064,118 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -3086,7 +3001,772 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E159A557-4B0E-4F97-820F-7F27BF9945D2}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Zmagovalec">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7B10D41-EB6C-48F7-80AE-83455E0E0F0C}" name="PoDrzavah" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Skupaj" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19" rowHeaderCaption="Država" colHeaderCaption="Spol">
+  <location ref="B2:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="54">
+        <item x="19"/>
+        <item x="12"/>
+        <item x="41"/>
+        <item x="6"/>
+        <item x="38"/>
+        <item x="45"/>
+        <item x="50"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item x="32"/>
+        <item x="24"/>
+        <item x="2"/>
+        <item x="30"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="21"/>
+        <item x="43"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="39"/>
+        <item x="11"/>
+        <item x="51"/>
+        <item x="13"/>
+        <item x="47"/>
+        <item x="29"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="48"/>
+        <item x="35"/>
+        <item x="31"/>
+        <item x="44"/>
+        <item x="34"/>
+        <item x="25"/>
+        <item x="52"/>
+        <item x="23"/>
+        <item x="46"/>
+        <item x="10"/>
+        <item x="40"/>
+        <item x="5"/>
+        <item x="37"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="42"/>
+        <item x="28"/>
+        <item x="16"/>
+        <item x="33"/>
+        <item x="49"/>
+        <item x="36"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="14">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Število zmag" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="40">
+    <format dxfId="39">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="37">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="34">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0"/>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea field="2" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="36">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E159A557-4B0E-4F97-820F-7F27BF9945D2}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Zmagovalec">
   <location ref="G4:H30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -3276,22 +3956,22 @@
     <dataField name="Število zmag" fld="1" subtotal="count" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="32">
-    <format dxfId="42">
+    <format dxfId="71">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="70">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="68">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="66">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -3300,17 +3980,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="11">
@@ -3332,7 +4012,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="12">
@@ -3355,41 +4035,41 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="59">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="56">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="54">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="53">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="57">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="58">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="59">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="60">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="61">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="41">
+    <format dxfId="51">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -3398,7 +4078,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -3407,13 +4087,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="49">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -3422,7 +4102,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -3431,14 +4111,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="11">
@@ -3460,7 +4140,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="12">
@@ -3483,7 +4163,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -3495,7 +4175,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -3504,7 +4184,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -3529,747 +4209,6 @@
       </autoFilter>
     </filter>
   </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7B10D41-EB6C-48F7-80AE-83455E0E0F0C}" name="PoDrzavah" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Skupaj" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19" rowHeaderCaption="Država" colHeaderCaption="Spol">
-  <location ref="B2:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="54">
-        <item x="19"/>
-        <item x="12"/>
-        <item x="41"/>
-        <item x="6"/>
-        <item x="38"/>
-        <item x="45"/>
-        <item x="50"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item x="32"/>
-        <item x="24"/>
-        <item x="2"/>
-        <item x="30"/>
-        <item x="15"/>
-        <item x="4"/>
-        <item x="21"/>
-        <item x="43"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="39"/>
-        <item x="11"/>
-        <item x="51"/>
-        <item x="13"/>
-        <item x="47"/>
-        <item x="29"/>
-        <item x="14"/>
-        <item x="9"/>
-        <item x="22"/>
-        <item x="48"/>
-        <item x="35"/>
-        <item x="31"/>
-        <item x="44"/>
-        <item x="34"/>
-        <item x="25"/>
-        <item x="52"/>
-        <item x="23"/>
-        <item x="46"/>
-        <item x="10"/>
-        <item x="40"/>
-        <item x="5"/>
-        <item x="37"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="42"/>
-        <item x="28"/>
-        <item x="16"/>
-        <item x="33"/>
-        <item x="49"/>
-        <item x="36"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="14">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="14">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Število zmag" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="40">
-    <format dxfId="72">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="73">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="74">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="75">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="76">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="77">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="78">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="79">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="80">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="81">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="82">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="83">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="84">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="85">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="86">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="87">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="88">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="89">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="90">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="91">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="92">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0"/>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="93">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="94">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="95">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="96">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="97">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="98">
-      <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="99">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="100">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="101">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="71">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="70">
-      <pivotArea field="2" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="69">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="68">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="67">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="66">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="65">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="64">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="63">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="62">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="34">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -4299,9 +4238,9 @@
   <autoFilter ref="B2:E106" xr:uid="{E5BF6F53-B45C-4396-8517-22C1E4A76235}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{995FFB79-6A69-4586-874F-F2E7B5AA4FC7}" uniqueName="1" name="Leto" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{B2AA50C5-8C90-4793-BCC1-6319058443C1}" uniqueName="2" name="Zmagovalec" queryTableFieldId="2" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{79A66DDB-BCF4-48B5-9C59-55E999D69A1F}" uniqueName="3" name="Država" queryTableFieldId="3" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{AFEA8B91-5484-4E52-B1AA-15E1D5A4F5E8}" uniqueName="4" name="Spol" queryTableFieldId="4" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{B2AA50C5-8C90-4793-BCC1-6319058443C1}" uniqueName="2" name="Zmagovalec" queryTableFieldId="2" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{79A66DDB-BCF4-48B5-9C59-55E999D69A1F}" uniqueName="3" name="Država" queryTableFieldId="3" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{AFEA8B91-5484-4E52-B1AA-15E1D5A4F5E8}" uniqueName="4" name="Spol" queryTableFieldId="4" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4656,13 +4595,13 @@
       <c r="B3">
         <v>1966</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4670,13 +4609,13 @@
       <c r="B4">
         <v>1967</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4684,13 +4623,13 @@
       <c r="B5">
         <v>1968</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4698,13 +4637,13 @@
       <c r="B6">
         <v>1969</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4712,13 +4651,13 @@
       <c r="B7">
         <v>1970</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4726,13 +4665,13 @@
       <c r="B8">
         <v>1971</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4740,13 +4679,13 @@
       <c r="B9">
         <v>1972</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4754,13 +4693,13 @@
       <c r="B10">
         <v>1973</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4768,13 +4707,13 @@
       <c r="B11">
         <v>1974</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4782,13 +4721,13 @@
       <c r="B12">
         <v>1975</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4796,13 +4735,13 @@
       <c r="B13">
         <v>1976</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4810,13 +4749,13 @@
       <c r="B14">
         <v>1977</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4824,13 +4763,13 @@
       <c r="B15">
         <v>1978</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4838,13 +4777,13 @@
       <c r="B16">
         <v>1979</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4852,13 +4791,13 @@
       <c r="B17">
         <v>1980</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4866,13 +4805,13 @@
       <c r="B18">
         <v>1981</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4880,13 +4819,13 @@
       <c r="B19">
         <v>1982</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4894,13 +4833,13 @@
       <c r="B20">
         <v>1983</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4908,13 +4847,13 @@
       <c r="B21">
         <v>1984</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4922,13 +4861,13 @@
       <c r="B22">
         <v>1985</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4936,13 +4875,13 @@
       <c r="B23">
         <v>1986</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4950,13 +4889,13 @@
       <c r="B24">
         <v>1987</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4964,13 +4903,13 @@
       <c r="B25">
         <v>1988</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4978,13 +4917,13 @@
       <c r="B26">
         <v>1989</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4992,13 +4931,13 @@
       <c r="B27">
         <v>1990</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5006,13 +4945,13 @@
       <c r="B28">
         <v>1991</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5020,13 +4959,13 @@
       <c r="B29">
         <v>1992</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5034,13 +4973,13 @@
       <c r="B30">
         <v>1993</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5048,13 +4987,13 @@
       <c r="B31">
         <v>1994</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5062,13 +5001,13 @@
       <c r="B32">
         <v>1995</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5076,13 +5015,13 @@
       <c r="B33">
         <v>1996</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5090,13 +5029,13 @@
       <c r="B34">
         <v>1997</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5104,13 +5043,13 @@
       <c r="B35">
         <v>1998</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5118,13 +5057,13 @@
       <c r="B36">
         <v>1999</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5132,13 +5071,13 @@
       <c r="B37">
         <v>2000</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5146,13 +5085,13 @@
       <c r="B38">
         <v>2001</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5160,13 +5099,13 @@
       <c r="B39">
         <v>2002</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5174,13 +5113,13 @@
       <c r="B40">
         <v>2003</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5188,13 +5127,13 @@
       <c r="B41">
         <v>2004</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5202,13 +5141,13 @@
       <c r="B42">
         <v>2005</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5216,13 +5155,13 @@
       <c r="B43">
         <v>2006</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5230,13 +5169,13 @@
       <c r="B44">
         <v>2007</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5244,13 +5183,13 @@
       <c r="B45">
         <v>2008</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5258,13 +5197,13 @@
       <c r="B46">
         <v>2009</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5272,13 +5211,13 @@
       <c r="B47">
         <v>2010</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5286,13 +5225,13 @@
       <c r="B48">
         <v>2011</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5300,13 +5239,13 @@
       <c r="B49">
         <v>2012</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5314,13 +5253,13 @@
       <c r="B50">
         <v>2013</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5328,13 +5267,13 @@
       <c r="B51">
         <v>2014</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5342,13 +5281,13 @@
       <c r="B52">
         <v>2015</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5356,13 +5295,13 @@
       <c r="B53">
         <v>2016</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5370,13 +5309,13 @@
       <c r="B54">
         <v>2017</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5384,13 +5323,13 @@
       <c r="B55">
         <v>1966</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5398,13 +5337,13 @@
       <c r="B56">
         <v>1967</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5412,13 +5351,13 @@
       <c r="B57">
         <v>1968</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>41</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5426,13 +5365,13 @@
       <c r="B58">
         <v>1969</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5440,13 +5379,13 @@
       <c r="B59">
         <v>1970</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5454,13 +5393,13 @@
       <c r="B60">
         <v>1971</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5468,13 +5407,13 @@
       <c r="B61">
         <v>1972</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5482,13 +5421,13 @@
       <c r="B62">
         <v>1973</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5496,13 +5435,13 @@
       <c r="B63">
         <v>1974</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5510,13 +5449,13 @@
       <c r="B64">
         <v>1975</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>46</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5524,13 +5463,13 @@
       <c r="B65">
         <v>1976</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5538,13 +5477,13 @@
       <c r="B66">
         <v>1977</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>48</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5552,13 +5491,13 @@
       <c r="B67">
         <v>1978</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5566,13 +5505,13 @@
       <c r="B68">
         <v>1979</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>48</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5580,13 +5519,13 @@
       <c r="B69">
         <v>1980</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>49</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5594,13 +5533,13 @@
       <c r="B70">
         <v>1981</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5608,13 +5547,13 @@
       <c r="B71">
         <v>1982</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>51</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5622,13 +5561,13 @@
       <c r="B72">
         <v>1983</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>50</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5636,13 +5575,13 @@
       <c r="B73">
         <v>1984</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5650,13 +5589,13 @@
       <c r="B74">
         <v>1985</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5664,13 +5603,13 @@
       <c r="B75">
         <v>1986</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5678,13 +5617,13 @@
       <c r="B76">
         <v>1987</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>52</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>15</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5692,13 +5631,13 @@
       <c r="B77">
         <v>1988</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>15</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5706,13 +5645,13 @@
       <c r="B78">
         <v>1989</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>55</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5720,13 +5659,13 @@
       <c r="B79">
         <v>1990</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>55</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5734,13 +5673,13 @@
       <c r="B80">
         <v>1991</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>55</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5748,13 +5687,13 @@
       <c r="B81">
         <v>1992</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>56</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5762,13 +5701,13 @@
       <c r="B82">
         <v>1993</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>54</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" t="s">
         <v>15</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5776,13 +5715,13 @@
       <c r="B83">
         <v>1994</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" t="s">
         <v>15</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5790,13 +5729,13 @@
       <c r="B84">
         <v>1995</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>57</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" t="s">
         <v>46</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5804,13 +5743,13 @@
       <c r="B85">
         <v>1996</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>58</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5818,13 +5757,13 @@
       <c r="B86">
         <v>1997</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>57</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5832,13 +5771,13 @@
       <c r="B87">
         <v>1998</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>59</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5846,13 +5785,13 @@
       <c r="B88">
         <v>1999</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" t="s">
         <v>60</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5860,13 +5799,13 @@
       <c r="B89">
         <v>2000</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>61</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" t="s">
         <v>36</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5874,13 +5813,13 @@
       <c r="B90">
         <v>2001</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5888,13 +5827,13 @@
       <c r="B91">
         <v>2002</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>61</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" t="s">
         <v>36</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5902,13 +5841,13 @@
       <c r="B92">
         <v>2003</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>63</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5916,13 +5855,13 @@
       <c r="B93">
         <v>2004</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>63</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5930,13 +5869,13 @@
       <c r="B94">
         <v>2005</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>61</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" t="s">
         <v>36</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5944,13 +5883,13 @@
       <c r="B95">
         <v>2006</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>64</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5958,13 +5897,13 @@
       <c r="B96">
         <v>2007</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" t="s">
         <v>65</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" t="s">
         <v>19</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5972,13 +5911,13 @@
       <c r="B97">
         <v>2008</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>65</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" t="s">
         <v>19</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5986,13 +5925,13 @@
       <c r="B98">
         <v>2009</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>65</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" t="s">
         <v>19</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6000,13 +5939,13 @@
       <c r="B99">
         <v>2010</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>66</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" t="s">
         <v>46</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6014,13 +5953,13 @@
       <c r="B100">
         <v>2011</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>65</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6028,13 +5967,13 @@
       <c r="B101">
         <v>2012</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>67</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" t="s">
         <v>68</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6042,13 +5981,13 @@
       <c r="B102">
         <v>2013</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" t="s">
         <v>69</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6056,13 +5995,13 @@
       <c r="B103">
         <v>2014</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" t="s">
         <v>69</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" t="s">
         <v>8</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6070,13 +6009,13 @@
       <c r="B104">
         <v>2015</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6084,13 +6023,13 @@
       <c r="B105">
         <v>2016</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" t="s">
         <v>71</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" t="s">
         <v>19</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6098,13 +6037,13 @@
       <c r="B106">
         <v>2017</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" t="s">
         <v>71</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" t="s">
         <v>19</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6121,7 +6060,7 @@
   <dimension ref="B2:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6135,400 +6074,400 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="G2" s="12" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="G2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>16</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>17</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
         <v>33</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>7</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>12</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>19</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>12</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>6</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5">
+      <c r="D8" s="3"/>
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5">
+      <c r="D9" s="3"/>
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5">
+      <c r="D10" s="3"/>
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
         <v>4</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <v>4</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13">
         <v>4</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14">
         <v>3</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>52</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>52</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>104</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="9">
         <v>66</v>
       </c>
     </row>
